--- a/tests/Uploadfiles/INVOICE-IFB - Copy.xlsx
+++ b/tests/Uploadfiles/INVOICE-IFB - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\tests\Uploadfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D80D1-E59B-4575-A948-C4CE7E9E13F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFFA61D-711B-44E8-B183-2ACBB076469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>30/08/2023</t>
   </si>
   <si>
-    <t>TL29T120723/1880</t>
+    <t>TL29T120723/1881</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:X501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
